--- a/01_Configuration/Potential.establishment.KG_Configuration.xlsx
+++ b/01_Configuration/Potential.establishment.KG_Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://efsa815-my.sharepoint.com/personal/andrea_maiorano_efsa_europa_eu/Documents/03_PLH/Projects/Potential-establishment-KG/01_Configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{DE72D9F3-DF0E-4758-BAD0-039D2D4D3BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7B8292-E3B1-497D-86B3-6C9E744EFF35}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{DE72D9F3-DF0E-4758-BAD0-039D2D4D3BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B26FB41-7DB3-49AD-85D2-179B4DE45DEC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34584" yWindow="588" windowWidth="15396" windowHeight="9528" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Present, no details</t>
   </si>
@@ -229,7 +229,13 @@
     <t>SE Asia</t>
   </si>
   <si>
-    <t>Spodoptera frugiperda</t>
+    <t>China</t>
+  </si>
+  <si>
+    <t>China_SE</t>
+  </si>
+  <si>
+    <t>Retithrips siriacus</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -830,7 +836,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1065,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1352,6 +1358,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>130</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G9">
     <sortCondition ref="A1"/>

--- a/01_Configuration/Potential.establishment.KG_Configuration.xlsx
+++ b/01_Configuration/Potential.establishment.KG_Configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://efsa815-my.sharepoint.com/personal/andrea_maiorano_efsa_europa_eu/Documents/03_PLH/Projects/Potential-establishment-KG/01_Configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{DE72D9F3-DF0E-4758-BAD0-039D2D4D3BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B26FB41-7DB3-49AD-85D2-179B4DE45DEC}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{DE72D9F3-DF0E-4758-BAD0-039D2D4D3BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AE49F34-E22E-4E6A-8F26-898F353801E7}"/>
   <bookViews>
-    <workbookView xWindow="34584" yWindow="588" windowWidth="15396" windowHeight="9528" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <t>China_SE</t>
   </si>
   <si>
-    <t>Retithrips siriacus</t>
+    <t>Phenacoccus solenopsis</t>
   </si>
 </sst>
 </file>
@@ -819,7 +819,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
